--- a/mass_printing/first-last-addresses.xlsx
+++ b/mass_printing/first-last-addresses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="213">
   <si>
     <t xml:space="preserve">{First_Name}</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunflower Seeds</t>
   </si>
 </sst>
 </file>
@@ -850,15 +853,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="24.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.66"/>
@@ -2077,10 +2080,34 @@
         <v>211</v>
       </c>
     </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>80305</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
